--- a/benchmark_summary.xlsx
+++ b/benchmark_summary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gconeice/Documents/zk_path_length/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gconeice/Documents/tight-vole-zk-cpu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A8D074-CCE6-624C-83C3-279DC544221B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543B9A6-0498-074D-BCCE-F249CBF15AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28160" yWindow="7280" windowWidth="28800" windowHeight="15660" xr2:uid="{AA2CF789-AB6B-F943-B68F-19F884B31108}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{AA2CF789-AB6B-F943-B68F-19F884B31108}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="round opt" sheetId="2" r:id="rId2"/>
-    <sheet name="fine grain" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Figure 7" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="round opt" sheetId="2" r:id="rId3"/>
+    <sheet name="fine grain" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>Batchman</t>
   </si>
@@ -195,14 +195,31 @@
   </si>
   <si>
     <t>C=100</t>
+  </si>
+  <si>
+    <t>100 Mbps</t>
+  </si>
+  <si>
+    <t>500 Mbps</t>
+  </si>
+  <si>
+    <t>1 Gbps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -236,12 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,11 +573,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E603B-CA90-214A-A5BA-9D5D3FA6D495}">
+  <dimension ref="E9:O36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>5350000</v>
+      </c>
+      <c r="I10">
+        <v>48.094299999999997</v>
+      </c>
+      <c r="L10">
+        <f>H10/I10</f>
+        <v>111239.79348904133</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11">
+        <v>5350000</v>
+      </c>
+      <c r="I11">
+        <v>16.174199999999999</v>
+      </c>
+      <c r="L11">
+        <f>H11/I11</f>
+        <v>330773.70132680441</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>5350000</v>
+      </c>
+      <c r="I12">
+        <v>12.1027</v>
+      </c>
+      <c r="J12">
+        <v>531643962</v>
+      </c>
+      <c r="K12">
+        <v>13126913</v>
+      </c>
+      <c r="L12">
+        <f>H12/I12</f>
+        <v>442050.12104736955</v>
+      </c>
+      <c r="M12">
+        <f>(J12+K12)/H12</f>
+        <v>101.82633177570094</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>5150000</v>
+      </c>
+      <c r="I14">
+        <v>46.955800000000004</v>
+      </c>
+      <c r="L14">
+        <f>H14/I14</f>
+        <v>109677.61171143925</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15">
+        <v>5150000</v>
+      </c>
+      <c r="I15">
+        <v>15.4003</v>
+      </c>
+      <c r="L15">
+        <f>H15/I15</f>
+        <v>334409.06995318271</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>5150000</v>
+      </c>
+      <c r="I16">
+        <v>11.737399999999999</v>
+      </c>
+      <c r="J16">
+        <v>512044650</v>
+      </c>
+      <c r="K16">
+        <v>13126897</v>
+      </c>
+      <c r="L16">
+        <f>H16/I16</f>
+        <v>438768.38141326018</v>
+      </c>
+      <c r="M16">
+        <f>(J16+K16)/H16</f>
+        <v>101.97505766990291</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18">
+        <v>5600000</v>
+      </c>
+      <c r="I18">
+        <v>52.045699999999997</v>
+      </c>
+      <c r="L18">
+        <f>H18/I18</f>
+        <v>107597.74582722492</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19">
+        <v>5600000</v>
+      </c>
+      <c r="I19">
+        <v>17.314599999999999</v>
+      </c>
+      <c r="L19">
+        <f>H19/I19</f>
+        <v>323426.4724567706</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>5600000</v>
+      </c>
+      <c r="I20">
+        <v>12.933299999999999</v>
+      </c>
+      <c r="J20">
+        <v>557023418</v>
+      </c>
+      <c r="K20">
+        <v>14914329</v>
+      </c>
+      <c r="L20">
+        <f>H20/I20</f>
+        <v>432990.8066773368</v>
+      </c>
+      <c r="M20">
+        <f>(J20+K20)/H20</f>
+        <v>102.13174053571429</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <v>6100000</v>
+      </c>
+      <c r="I22">
+        <v>56.031399999999998</v>
+      </c>
+      <c r="L22">
+        <f>H22/I22</f>
+        <v>108867.52785045528</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <v>6100000</v>
+      </c>
+      <c r="I23">
+        <v>17.810300000000002</v>
+      </c>
+      <c r="L23">
+        <f>H23/I23</f>
+        <v>342498.44191282568</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>6100000</v>
+      </c>
+      <c r="I24">
+        <v>13.2767</v>
+      </c>
+      <c r="J24">
+        <v>606023530</v>
+      </c>
+      <c r="K24">
+        <v>14914361</v>
+      </c>
+      <c r="L24">
+        <f>H24/I24</f>
+        <v>459451.5203326128</v>
+      </c>
+      <c r="M24">
+        <f>(J24+K24)/H24</f>
+        <v>101.7930968852459</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26">
+        <v>6100000</v>
+      </c>
+      <c r="I26">
+        <v>55.944099999999999</v>
+      </c>
+      <c r="L26">
+        <f>H26/I26</f>
+        <v>109037.41413303638</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27">
+        <v>6100000</v>
+      </c>
+      <c r="I27">
+        <v>17.582699999999999</v>
+      </c>
+      <c r="L27">
+        <f>H27/I27</f>
+        <v>346931.92740591604</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>6100000</v>
+      </c>
+      <c r="I28">
+        <v>13.2949</v>
+      </c>
+      <c r="J28">
+        <v>606024426</v>
+      </c>
+      <c r="K28">
+        <v>14914361</v>
+      </c>
+      <c r="L28">
+        <f>H28/I28</f>
+        <v>458822.55601772107</v>
+      </c>
+      <c r="M28">
+        <f>(J28+K28)/H28</f>
+        <v>101.7932437704918</v>
+      </c>
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>13969680</v>
+      </c>
+      <c r="I30">
+        <v>126.108</v>
+      </c>
+      <c r="L30">
+        <f>H30/I30</f>
+        <v>110775.52573984204</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31">
+        <v>13984690</v>
+      </c>
+      <c r="I31">
+        <v>41.472099999999998</v>
+      </c>
+      <c r="L31">
+        <f>H31/I31</f>
+        <v>337207.18266014988</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>13974145</v>
+      </c>
+      <c r="I32">
+        <v>29.902699999999999</v>
+      </c>
+      <c r="J32">
+        <v>1386477738</v>
+      </c>
+      <c r="K32">
+        <v>32788825</v>
+      </c>
+      <c r="L32">
+        <f>H32/I32</f>
+        <v>467320.50951920729</v>
+      </c>
+      <c r="M32">
+        <f>(J32+K32)/H32</f>
+        <v>101.56374955319269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>26412310</v>
+      </c>
+      <c r="I34">
+        <v>240.24100000000001</v>
+      </c>
+      <c r="L34">
+        <f>H34/I34</f>
+        <v>109940.89268692688</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>26245230</v>
+      </c>
+      <c r="I35">
+        <v>77.106200000000001</v>
+      </c>
+      <c r="L35">
+        <f>H35/I35</f>
+        <v>340377.68687861675</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>26263560</v>
+      </c>
+      <c r="I36">
+        <v>56.991999999999997</v>
+      </c>
+      <c r="J36">
+        <v>2604021090</v>
+      </c>
+      <c r="K36">
+        <v>59600561</v>
+      </c>
+      <c r="L36">
+        <f>H36/I36</f>
+        <v>460828.88826501969</v>
+      </c>
+      <c r="M36">
+        <f>(J36+K36)/H36</f>
+        <v>101.41891087879937</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3644E-EB88-BC47-B8C1-8D31C6B4F390}">
-  <dimension ref="B1:R25"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,31 +1470,10 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>500000</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>1000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="M15" t="s">
@@ -1006,6 +1513,15 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" t="s">
@@ -1030,6 +1546,18 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>500000</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="M18">
@@ -1038,67 +1566,14 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>2320.77</v>
-      </c>
-      <c r="D20">
-        <v>645.67999999999995</v>
-      </c>
-      <c r="E20">
-        <v>438.505</v>
-      </c>
-      <c r="F20">
-        <v>26093012898</v>
-      </c>
-      <c r="G20">
-        <v>577956825</v>
-      </c>
-      <c r="H20">
-        <f>(F20+G20)/1024</f>
-        <v>26045868.870117188</v>
-      </c>
-      <c r="I20">
-        <f>H20/500000</f>
-        <v>52.091737740234372</v>
-      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <f>500000/C20</f>
-        <v>215.44573568255365</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:E21" si="8">500000/D20</f>
-        <v>774.37740056994187</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="8"/>
-        <v>1140.2378536162644</v>
-      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="O21">
@@ -1107,77 +1582,134 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>124.94</v>
-      </c>
-      <c r="D22">
-        <v>39.54</v>
-      </c>
-      <c r="E22">
-        <v>29.31</v>
-      </c>
-      <c r="F22">
-        <v>1383135378</v>
-      </c>
-      <c r="G22">
-        <v>32788825</v>
-      </c>
-      <c r="H22">
-        <f>(F22+G22)/1024</f>
-        <v>1382738.4794921875</v>
-      </c>
-      <c r="I22">
-        <f>H22/500000</f>
-        <v>2.7654769589843751</v>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <f t="shared" ref="C23:D23" si="9">500000/C22</f>
+        <v>2320.77</v>
+      </c>
+      <c r="D23">
+        <v>645.67999999999995</v>
+      </c>
+      <c r="E23">
+        <v>438.505</v>
+      </c>
+      <c r="F23">
+        <v>26093012898</v>
+      </c>
+      <c r="G23">
+        <v>577956825</v>
+      </c>
+      <c r="H23">
+        <f>(F23+G23)/1024</f>
+        <v>26045868.870117188</v>
+      </c>
+      <c r="I23">
+        <f>H23/500000</f>
+        <v>52.091737740234372</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>500000/C23</f>
+        <v>215.44573568255365</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="8">500000/D23</f>
+        <v>774.37740056994187</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="8"/>
+        <v>1140.2378536162644</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>124.94</v>
+      </c>
+      <c r="D25">
+        <v>39.54</v>
+      </c>
+      <c r="E25">
+        <v>29.31</v>
+      </c>
+      <c r="F25">
+        <v>1383135378</v>
+      </c>
+      <c r="G25">
+        <v>32788825</v>
+      </c>
+      <c r="H25">
+        <f>(F25+G25)/1024</f>
+        <v>1382738.4794921875</v>
+      </c>
+      <c r="I25">
+        <f>H25/500000</f>
+        <v>2.7654769589843751</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" ref="C26:D26" si="9">500000/C25</f>
         <v>4001.9209220425805</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <f t="shared" si="9"/>
         <v>12645.422357106727</v>
       </c>
-      <c r="E23">
-        <f>500000/E22</f>
+      <c r="E26">
+        <f>500000/E25</f>
         <v>17059.024223814398</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <f>C23/C21</f>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>C26/C24</f>
         <v>18.575076036497517</v>
       </c>
-      <c r="D25">
-        <f t="shared" ref="D25:E25" si="10">D23/D21</f>
+      <c r="D28">
+        <f t="shared" ref="D28:E28" si="10">D26/D24</f>
         <v>16.329792615073341</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <f t="shared" si="10"/>
         <v>14.960934834527466</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD1EB4-8510-8944-B431-D0EEA535B06D}">
   <dimension ref="A3:N28"/>
   <sheetViews>
@@ -1968,7 +2500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F57885-D116-1847-9C8D-E221290BF561}">
   <dimension ref="B2:O24"/>
   <sheetViews>
@@ -2214,514 +2746,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E603B-CA90-214A-A5BA-9D5D3FA6D495}">
-  <dimension ref="E9:N36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:L36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10">
-        <v>5350000</v>
-      </c>
-      <c r="I10">
-        <v>48.094299999999997</v>
-      </c>
-      <c r="L10">
-        <f>H10/I10</f>
-        <v>111239.79348904133</v>
-      </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11">
-        <v>5350000</v>
-      </c>
-      <c r="I11">
-        <v>16.174199999999999</v>
-      </c>
-      <c r="L11">
-        <f>H11/I11</f>
-        <v>330773.70132680441</v>
-      </c>
-      <c r="N11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H12">
-        <v>5350000</v>
-      </c>
-      <c r="I12">
-        <v>12.1027</v>
-      </c>
-      <c r="J12">
-        <v>531643962</v>
-      </c>
-      <c r="K12">
-        <v>13126913</v>
-      </c>
-      <c r="L12">
-        <f>H12/I12</f>
-        <v>442050.12104736955</v>
-      </c>
-      <c r="M12">
-        <f>(J12+K12)/H12</f>
-        <v>101.82633177570094</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14">
-        <v>5150000</v>
-      </c>
-      <c r="I14">
-        <v>46.955800000000004</v>
-      </c>
-      <c r="L14">
-        <f>H14/I14</f>
-        <v>109677.61171143925</v>
-      </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15">
-        <v>5150000</v>
-      </c>
-      <c r="I15">
-        <v>15.4003</v>
-      </c>
-      <c r="L15">
-        <f>H15/I15</f>
-        <v>334409.06995318271</v>
-      </c>
-      <c r="N15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H16">
-        <v>5150000</v>
-      </c>
-      <c r="I16">
-        <v>11.737399999999999</v>
-      </c>
-      <c r="J16">
-        <v>512044650</v>
-      </c>
-      <c r="K16">
-        <v>13126897</v>
-      </c>
-      <c r="L16">
-        <f>H16/I16</f>
-        <v>438768.38141326018</v>
-      </c>
-      <c r="M16">
-        <f>(J16+K16)/H16</f>
-        <v>101.97505766990291</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E18">
-        <v>50</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18">
-        <v>5600000</v>
-      </c>
-      <c r="I18">
-        <v>52.045699999999997</v>
-      </c>
-      <c r="L18">
-        <f>H18/I18</f>
-        <v>107597.74582722492</v>
-      </c>
-      <c r="N18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19">
-        <v>5600000</v>
-      </c>
-      <c r="I19">
-        <v>17.314599999999999</v>
-      </c>
-      <c r="L19">
-        <f>H19/I19</f>
-        <v>323426.4724567706</v>
-      </c>
-      <c r="N19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H20">
-        <v>5600000</v>
-      </c>
-      <c r="I20">
-        <v>12.933299999999999</v>
-      </c>
-      <c r="J20">
-        <v>557023418</v>
-      </c>
-      <c r="K20">
-        <v>14914329</v>
-      </c>
-      <c r="L20">
-        <f>H20/I20</f>
-        <v>432990.8066773368</v>
-      </c>
-      <c r="M20">
-        <f>(J20+K20)/H20</f>
-        <v>102.13174053571429</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E22">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22">
-        <v>6100000</v>
-      </c>
-      <c r="I22">
-        <v>56.031399999999998</v>
-      </c>
-      <c r="L22">
-        <f>H22/I22</f>
-        <v>108867.52785045528</v>
-      </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23">
-        <v>6100000</v>
-      </c>
-      <c r="I23">
-        <v>17.810300000000002</v>
-      </c>
-      <c r="L23">
-        <f>H23/I23</f>
-        <v>342498.44191282568</v>
-      </c>
-      <c r="N23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H24">
-        <v>6100000</v>
-      </c>
-      <c r="I24">
-        <v>13.2767</v>
-      </c>
-      <c r="J24">
-        <v>606023530</v>
-      </c>
-      <c r="K24">
-        <v>14914361</v>
-      </c>
-      <c r="L24">
-        <f>H24/I24</f>
-        <v>459451.5203326128</v>
-      </c>
-      <c r="M24">
-        <f>(J24+K24)/H24</f>
-        <v>101.7930968852459</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26">
-        <v>6100000</v>
-      </c>
-      <c r="I26">
-        <v>55.944099999999999</v>
-      </c>
-      <c r="L26">
-        <f>H26/I26</f>
-        <v>109037.41413303638</v>
-      </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27">
-        <v>6100000</v>
-      </c>
-      <c r="I27">
-        <v>17.582699999999999</v>
-      </c>
-      <c r="L27">
-        <f>H27/I27</f>
-        <v>346931.92740591604</v>
-      </c>
-      <c r="N27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H28">
-        <v>6100000</v>
-      </c>
-      <c r="I28">
-        <v>13.2949</v>
-      </c>
-      <c r="J28">
-        <v>606024426</v>
-      </c>
-      <c r="K28">
-        <v>14914361</v>
-      </c>
-      <c r="L28">
-        <f>H28/I28</f>
-        <v>458822.55601772107</v>
-      </c>
-      <c r="M28">
-        <f>(J28+K28)/H28</f>
-        <v>101.7932437704918</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>13969680</v>
-      </c>
-      <c r="I30">
-        <v>126.108</v>
-      </c>
-      <c r="L30">
-        <f>H30/I30</f>
-        <v>110775.52573984204</v>
-      </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31">
-        <v>13984690</v>
-      </c>
-      <c r="I31">
-        <v>41.472099999999998</v>
-      </c>
-      <c r="L31">
-        <f>H31/I31</f>
-        <v>337207.18266014988</v>
-      </c>
-      <c r="N31">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H32">
-        <v>13974145</v>
-      </c>
-      <c r="I32">
-        <v>29.902699999999999</v>
-      </c>
-      <c r="J32">
-        <v>1386477738</v>
-      </c>
-      <c r="K32">
-        <v>32788825</v>
-      </c>
-      <c r="L32">
-        <f>H32/I32</f>
-        <v>467320.50951920729</v>
-      </c>
-      <c r="M32">
-        <f>(J32+K32)/H32</f>
-        <v>101.56374955319269</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34">
-        <v>26412310</v>
-      </c>
-      <c r="I34">
-        <v>240.24100000000001</v>
-      </c>
-      <c r="L34">
-        <f>H34/I34</f>
-        <v>109940.89268692688</v>
-      </c>
-      <c r="N34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H35">
-        <v>26245230</v>
-      </c>
-      <c r="I35">
-        <v>77.106200000000001</v>
-      </c>
-      <c r="L35">
-        <f>H35/I35</f>
-        <v>340377.68687861675</v>
-      </c>
-      <c r="N35">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="H36">
-        <v>26263560</v>
-      </c>
-      <c r="I36">
-        <v>56.991999999999997</v>
-      </c>
-      <c r="J36">
-        <v>2604021090</v>
-      </c>
-      <c r="K36">
-        <v>59600561</v>
-      </c>
-      <c r="L36">
-        <f>H36/I36</f>
-        <v>460828.88826501969</v>
-      </c>
-      <c r="M36">
-        <f>(J36+K36)/H36</f>
-        <v>101.41891087879937</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/benchmark_summary.xlsx
+++ b/benchmark_summary.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gconeice/Documents/tight-vole-zk-cpu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543B9A6-0498-074D-BCCE-F249CBF15AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9FB4A4-89DB-D147-BA2D-F913D564CDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{AA2CF789-AB6B-F943-B68F-19F884B31108}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 7" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="round opt" sheetId="2" r:id="rId3"/>
+    <sheet name="Figure 8 9" sheetId="1" r:id="rId2"/>
+    <sheet name="Figure 10" sheetId="5" r:id="rId3"/>
     <sheet name="fine grain" sheetId="3" r:id="rId4"/>
+    <sheet name="round opt" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>Batchman</t>
   </si>
@@ -204,6 +205,33 @@
   </si>
   <si>
     <t>1 Gbps</t>
+  </si>
+  <si>
+    <t>#BRANCH</t>
+  </si>
+  <si>
+    <t>#REG</t>
+  </si>
+  <si>
+    <t>#STEP</t>
+  </si>
+  <si>
+    <t>#CIR</t>
+  </si>
+  <si>
+    <t>Figure 8</t>
+  </si>
+  <si>
+    <t>Figure 9</t>
+  </si>
+  <si>
+    <t>Total Comm.</t>
+  </si>
+  <si>
+    <t>Comm./Step.</t>
+  </si>
+  <si>
+    <t>Hz Rate</t>
   </si>
 </sst>
 </file>
@@ -227,18 +255,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,13 +275,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,20 +599,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E603B-CA90-214A-A5BA-9D5D3FA6D495}">
-  <dimension ref="E9:O36"/>
+  <dimension ref="D9:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -611,14 +639,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>10</v>
+      </c>
       <c r="E10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H10">
@@ -635,7 +666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>51</v>
       </c>
@@ -653,7 +684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H12">
         <v>5350000</v>
       </c>
@@ -678,14 +709,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>50</v>
+      </c>
       <c r="E14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H14">
@@ -702,7 +736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>51</v>
       </c>
@@ -720,7 +754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H16">
         <v>5150000</v>
       </c>
@@ -745,14 +779,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>50</v>
+      </c>
       <c r="E18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3" t="s">
+        <v>50000</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H18">
@@ -769,7 +806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>51</v>
       </c>
@@ -787,7 +824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H20">
         <v>5600000</v>
       </c>
@@ -812,14 +849,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>50</v>
+      </c>
       <c r="E22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>50000</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H22">
@@ -836,7 +876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>51</v>
       </c>
@@ -854,7 +894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H24">
         <v>6100000</v>
       </c>
@@ -879,14 +919,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>100</v>
+      </c>
       <c r="E26">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26" s="3" t="s">
+        <v>50000</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H26">
@@ -903,7 +946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>51</v>
       </c>
@@ -921,7 +964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H28">
         <v>6100000</v>
       </c>
@@ -946,14 +989,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>100</v>
+      </c>
       <c r="E30">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>50000</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H30">
@@ -970,7 +1016,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>51</v>
       </c>
@@ -988,7 +1034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H32">
         <v>13974145</v>
       </c>
@@ -1013,14 +1059,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>100</v>
+      </c>
       <c r="E34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>20</v>
-      </c>
-      <c r="G34" s="3" t="s">
+        <v>50000</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H34">
@@ -1037,7 +1086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H35">
         <v>26245230</v>
       </c>
@@ -1052,7 +1101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H36">
         <v>26263560</v>
       </c>
@@ -1084,69 +1133,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D3644E-EB88-BC47-B8C1-8D31C6B4F390}">
-  <dimension ref="B1:R28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M1" sqref="M1:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>500000</v>
       </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>125</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="M2">
-        <v>50000</v>
-      </c>
-      <c r="N2">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1162,22 +1208,17 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="M5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1204,19 +1245,14 @@
         <f>H6/500000</f>
         <v>7.2899412714843752</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>21.2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C7">
         <f>500000/C6</f>
         <v>1540.1628260139662</v>
@@ -1229,22 +1265,11 @@
         <f>500000/E6</f>
         <v>8039.6709523472618</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>139.05000000000001</v>
-      </c>
-      <c r="N7">
-        <v>1523954218</v>
-      </c>
-      <c r="O7">
-        <v>36363721</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1264,27 +1289,27 @@
         <v>141823201</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H10" si="0">(F8+G8)/1024</f>
+        <f>(F8+G8)/1024</f>
         <v>6332456.2138671875</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I10" si="1">H8/500000</f>
+        <f>H8/500000</f>
         <v>12.664912427734375</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8">
-        <f>M7/M6</f>
-        <v>6.558962264150944</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C9">
-        <f t="shared" ref="C9:D9" si="2">500000/C8</f>
+        <f>500000/C8</f>
         <v>862.33658721672236</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f>500000/D8</f>
         <v>2742.867173914236</v>
       </c>
       <c r="E9">
@@ -1296,21 +1321,22 @@
         <v>0.55989962402124793</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:H9" si="3">D9/D7</f>
+        <f>D9/D7</f>
         <v>0.51139441881387449</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f>E9/E7</f>
         <v>0.46147841443687587</v>
       </c>
       <c r="I9">
         <f>I8/I6</f>
         <v>1.7373133686652527</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1330,35 +1356,27 @@
         <v>13126897</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>(F10+G10)/1024</f>
         <v>516430.6513671875</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f>H10/500000</f>
         <v>1.0328613027343749</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C11">
-        <f t="shared" ref="C11:D11" si="4">500000/C10</f>
+        <f>500000/C10</f>
         <v>10621.439162520766</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f>500000/D10</f>
         <v>32530.904359141186</v>
       </c>
       <c r="E11">
@@ -1370,32 +1388,18 @@
         <v>6.8963092623198081</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:H11" si="5">D11/D7</f>
+        <f>D11/D7</f>
         <v>6.0652309694209503</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
+        <f>E11/E7</f>
         <v>5.449667017174904</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>6.61</v>
-      </c>
-      <c r="N11">
-        <v>229555562</v>
-      </c>
-      <c r="O11">
-        <v>7764521</v>
-      </c>
-      <c r="P11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1422,28 +1426,20 @@
         <f>H12/500000</f>
         <v>6.2606523339843747</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12">
-        <v>44.42</v>
-      </c>
-      <c r="N12">
-        <v>1523363274</v>
-      </c>
-      <c r="O12">
-        <v>36363721</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="6">500000/C12</f>
+        <f>500000/C12</f>
         <v>1733.2524482190829</v>
       </c>
       <c r="D13">
-        <f t="shared" si="6"/>
+        <f>500000/D12</f>
         <v>5929.8756623671115</v>
       </c>
       <c r="E13">
@@ -1451,137 +1447,88 @@
         <v>8471.8049858266695</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:G13" si="7">C13/C7</f>
+        <f>C13/C7</f>
         <v>1.1253696160845825</v>
       </c>
       <c r="G13">
-        <f t="shared" si="7"/>
+        <f>D13/D7</f>
         <v>1.1055968538451686</v>
       </c>
       <c r="H13">
         <f>E13/E7</f>
         <v>1.0537502139130759</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="M13">
-        <f>M12/M11</f>
-        <v>6.7201210287443267</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="N16">
-        <v>229397482</v>
-      </c>
-      <c r="O16">
-        <v>7764521</v>
-      </c>
-      <c r="P16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16">
-        <f>(N16+O16)/1024/1024</f>
-        <v>226.17531108856201</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17">
-        <v>31.48</v>
-      </c>
-      <c r="N17">
-        <v>1521516338</v>
-      </c>
-      <c r="O17">
-        <v>34576305</v>
-      </c>
-      <c r="Q17">
-        <f>(N17+O17)/1024/1024</f>
-        <v>1484.0055875778198</v>
-      </c>
-      <c r="R17">
-        <f>Q17/Q16</f>
-        <v>6.5613067157305123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
       <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>500000</v>
       </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
+      <c r="F18">
         <v>1000</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="M18">
-        <f>M17/M16</f>
-        <v>6.2213438735177871</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="O21">
-        <f>(N17+O17)/15300000</f>
-        <v>101.70540150326798</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -1597,10 +1544,17 @@
       <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -1627,26 +1581,31 @@
         <f>H23/500000</f>
         <v>52.091737740234372</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C24">
         <f>500000/C23</f>
         <v>215.44573568255365</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:E24" si="8">500000/D23</f>
+        <f t="shared" ref="D24:E24" si="0">500000/D23</f>
         <v>774.37740056994187</v>
       </c>
       <c r="E24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1140.2378536162644</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -1673,16 +1632,20 @@
         <f>H25/500000</f>
         <v>2.7654769589843751</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C26">
-        <f t="shared" ref="C26:D26" si="9">500000/C25</f>
+        <f t="shared" ref="C26:D26" si="1">500000/C25</f>
         <v>4001.9209220425805</v>
       </c>
       <c r="D26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12645.422357106727</v>
       </c>
       <c r="E26">
@@ -1690,812 +1653,231 @@
         <v>17059.024223814398</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
       <c r="C28">
         <f>C26/C24</f>
         <v>18.575076036497517</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:E28" si="10">D26/D24</f>
+        <f t="shared" ref="D28:E28" si="2">D26/D24</f>
         <v>16.329792615073341</v>
       </c>
       <c r="E28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>14.960934834527466</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A17:A28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD1EB4-8510-8944-B431-D0EEA535B06D}">
-  <dimension ref="A3:N28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC4B690-0DCF-F341-930D-CD8CBDCFC4AF}">
+  <dimension ref="C1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>50000</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1600000</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>13.516</v>
-      </c>
-      <c r="H4">
-        <v>635423378</v>
-      </c>
-      <c r="I4">
-        <v>14914361</v>
-      </c>
-      <c r="J4">
-        <v>6400000</v>
-      </c>
-      <c r="K4">
-        <f>J4/G4</f>
-        <v>473512.87363125186</v>
-      </c>
-      <c r="L4">
-        <f>(H4+I4)/J4</f>
-        <v>101.61527171874999</v>
-      </c>
-      <c r="N4">
-        <f>K4/1000</f>
-        <v>473.51287363125186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1600000</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>8.5180000000000007</v>
-      </c>
-      <c r="H5">
-        <v>392787210</v>
-      </c>
-      <c r="I5">
-        <v>9551985</v>
-      </c>
-      <c r="J5">
-        <v>6400000</v>
-      </c>
-      <c r="K5">
-        <f>J5/G5</f>
-        <v>751350.08217891515</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L10" si="0">(H5+I5)/J5</f>
-        <v>62.865499218750003</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N10" si="1">K5/1000</f>
-        <v>751.35008217891516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>21.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>139.05000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1523954218</v>
+      </c>
+      <c r="F7">
+        <v>36363721</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>D7/D6</f>
+        <v>6.558962264150944</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>6.61</v>
+      </c>
+      <c r="E11">
+        <v>229555562</v>
+      </c>
+      <c r="F11">
+        <v>7764521</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>44.42</v>
+      </c>
+      <c r="E12">
+        <v>1523363274</v>
+      </c>
+      <c r="F12">
+        <v>36363721</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>D12/D11</f>
+        <v>6.7201210287443267</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>800000</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.3869999999999996</v>
-      </c>
-      <c r="H6">
-        <v>352787194</v>
-      </c>
-      <c r="I6">
-        <v>9551969</v>
-      </c>
-      <c r="J6">
-        <v>6400000</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K10" si="2">J6/G6</f>
-        <v>866386.89589819964</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>56.615494218750001</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>866.38689589819967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7">
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E16">
+        <v>229397482</v>
+      </c>
+      <c r="F16">
+        <v>7764521</v>
+      </c>
+      <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>400000</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.3140000000000001</v>
-      </c>
-      <c r="H7">
-        <v>332787178</v>
-      </c>
-      <c r="I7">
-        <v>9551953</v>
-      </c>
-      <c r="J7">
-        <v>6400000</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>875034.1810226962</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>53.49048921875</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>875.0341810226962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>200000</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6.8920000000000003</v>
-      </c>
-      <c r="H8">
-        <v>322787178</v>
-      </c>
-      <c r="I8">
-        <v>9551953</v>
-      </c>
-      <c r="J8">
-        <v>6400000</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>928612.88450377248</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>51.92798921875</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>928.61288450377253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>100000</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>61</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6.7830000000000004</v>
-      </c>
-      <c r="H9">
-        <v>317787178</v>
-      </c>
-      <c r="I9">
-        <v>9551953</v>
-      </c>
-      <c r="J9">
-        <v>6400000</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>943535.30886038626</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>51.14673921875</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>943.53530886038629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>128</v>
-      </c>
-      <c r="C10">
-        <v>50000</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>125</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.75</v>
-      </c>
-      <c r="H10">
-        <v>315287178</v>
-      </c>
-      <c r="I10">
-        <v>9551953</v>
-      </c>
-      <c r="J10">
-        <v>6400000</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>948148.1481481482</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>50.75611421875</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>948.14814814814815</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1600000</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>18.374300000000002</v>
-      </c>
-      <c r="J13">
-        <v>6400000</v>
-      </c>
-      <c r="K13">
-        <f>J13/G13</f>
-        <v>348312.58877889224</v>
-      </c>
-      <c r="N13">
-        <f>K13/1000</f>
-        <v>348.31258877889223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1600000</v>
-      </c>
-      <c r="D14">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>11.034000000000001</v>
-      </c>
-      <c r="J14">
-        <v>6400000</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K19" si="3">J14/G14</f>
-        <v>580025.37611020473</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N19" si="4">K14/1000</f>
-        <v>580.02537611020477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>800000</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>10.058999999999999</v>
-      </c>
-      <c r="J15">
-        <v>6400000</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>636246.14772840252</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
-        <v>636.24614772840255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>400000</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="J16">
-        <v>6400000</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>664589.8234683281</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
-        <v>664.58982346832806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>200000</v>
+      <c r="H16">
+        <f>(E16+F16)/1024/1024</f>
+        <v>226.17531108856201</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>31.48</v>
       </c>
       <c r="E17">
-        <v>29</v>
+        <v>1521516338</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>9.3979999999999997</v>
-      </c>
-      <c r="J17">
-        <v>6400000</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>680995.95658650785</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
-        <v>680.99595658650787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>64</v>
-      </c>
-      <c r="C18">
-        <v>100000</v>
-      </c>
+        <v>34576305</v>
+      </c>
+      <c r="H17">
+        <f>(E17+F17)/1024/1024</f>
+        <v>1484.0055875778198</v>
+      </c>
+      <c r="I17">
+        <f>H17/H16</f>
+        <v>6.5613067157305123</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>61</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>9.282</v>
-      </c>
-      <c r="J18">
-        <v>6400000</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>689506.57185951306</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="4"/>
-        <v>689.50657185951309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>128</v>
-      </c>
-      <c r="C19">
-        <v>50000</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>125</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>9.2759999999999998</v>
-      </c>
-      <c r="J19">
-        <v>6400000</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>689952.56576110399</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="4"/>
-        <v>689.95256576110398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1600000</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>57.323500000000003</v>
-      </c>
-      <c r="J22">
-        <v>6400000</v>
-      </c>
-      <c r="K22">
-        <f>J22/G22</f>
-        <v>111647.05574502602</v>
-      </c>
-      <c r="N22">
-        <f>K22/1000</f>
-        <v>111.64705574502602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>1600000</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>35.628</v>
-      </c>
-      <c r="J23">
-        <v>6400000</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ref="K23:K28" si="5">J23/G23</f>
-        <v>179633.9957336926</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N28" si="6">K23/1000</f>
-        <v>179.63399573369261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>800000</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>33.027000000000001</v>
-      </c>
-      <c r="J24">
-        <v>6400000</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
-        <v>193780.8459745057</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="6"/>
-        <v>193.7808459745057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>400000</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>13</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>30.825900000000001</v>
-      </c>
-      <c r="J25">
-        <v>6400000</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
-        <v>207617.6202479084</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="6"/>
-        <v>207.61762024790841</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>200000</v>
-      </c>
-      <c r="D26">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <v>29</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>29.965</v>
-      </c>
-      <c r="J26">
-        <v>6400000</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
-        <v>213582.51293175371</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="6"/>
-        <v>213.58251293175371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>64</v>
-      </c>
-      <c r="C27">
-        <v>100000</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>61</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>29.601199999999999</v>
-      </c>
-      <c r="J27">
-        <v>6400000</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>216207.45104928181</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="6"/>
-        <v>216.20745104928181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>128</v>
-      </c>
-      <c r="C28">
-        <v>50000</v>
-      </c>
-      <c r="D28">
-        <v>50</v>
-      </c>
-      <c r="E28">
-        <v>125</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>29.571999999999999</v>
-      </c>
-      <c r="J28">
-        <v>6400000</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>216420.93872582173</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="6"/>
-        <v>216.42093872582174</v>
+        <f>D17/D16</f>
+        <v>6.2213438735177871</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>(E17+F17)/15300000</f>
+        <v>101.70540150326798</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A24:A26"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2505,7 +1887,7 @@
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:M23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2526,30 +1908,30 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D3">
-        <v>500000</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>50000</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -2746,4 +2128,795 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD1EB4-8510-8944-B431-D0EEA535B06D}">
+  <dimension ref="A3:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1600000</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>13.516</v>
+      </c>
+      <c r="H4">
+        <v>635423378</v>
+      </c>
+      <c r="I4">
+        <v>14914361</v>
+      </c>
+      <c r="J4">
+        <v>6400000</v>
+      </c>
+      <c r="K4">
+        <f>J4/G4</f>
+        <v>473512.87363125186</v>
+      </c>
+      <c r="L4">
+        <f>(H4+I4)/J4</f>
+        <v>101.61527171874999</v>
+      </c>
+      <c r="N4">
+        <f>K4/1000</f>
+        <v>473.51287363125186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1600000</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.5180000000000007</v>
+      </c>
+      <c r="H5">
+        <v>392787210</v>
+      </c>
+      <c r="I5">
+        <v>9551985</v>
+      </c>
+      <c r="J5">
+        <v>6400000</v>
+      </c>
+      <c r="K5">
+        <f>J5/G5</f>
+        <v>751350.08217891515</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L10" si="0">(H5+I5)/J5</f>
+        <v>62.865499218750003</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N10" si="1">K5/1000</f>
+        <v>751.35008217891516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>800000</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.3869999999999996</v>
+      </c>
+      <c r="H6">
+        <v>352787194</v>
+      </c>
+      <c r="I6">
+        <v>9551969</v>
+      </c>
+      <c r="J6">
+        <v>6400000</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K10" si="2">J6/G6</f>
+        <v>866386.89589819964</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>56.615494218750001</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>866.38689589819967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>400000</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.3140000000000001</v>
+      </c>
+      <c r="H7">
+        <v>332787178</v>
+      </c>
+      <c r="I7">
+        <v>9551953</v>
+      </c>
+      <c r="J7">
+        <v>6400000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>875034.1810226962</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>53.49048921875</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>875.0341810226962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>200000</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.8920000000000003</v>
+      </c>
+      <c r="H8">
+        <v>322787178</v>
+      </c>
+      <c r="I8">
+        <v>9551953</v>
+      </c>
+      <c r="J8">
+        <v>6400000</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>928612.88450377248</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>51.92798921875</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>928.61288450377253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="H9">
+        <v>317787178</v>
+      </c>
+      <c r="I9">
+        <v>9551953</v>
+      </c>
+      <c r="J9">
+        <v>6400000</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>943535.30886038626</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>51.14673921875</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>943.53530886038629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>50000</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.75</v>
+      </c>
+      <c r="H10">
+        <v>315287178</v>
+      </c>
+      <c r="I10">
+        <v>9551953</v>
+      </c>
+      <c r="J10">
+        <v>6400000</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>948148.1481481482</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>50.75611421875</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>948.14814814814815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1600000</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.374300000000002</v>
+      </c>
+      <c r="J13">
+        <v>6400000</v>
+      </c>
+      <c r="K13">
+        <f>J13/G13</f>
+        <v>348312.58877889224</v>
+      </c>
+      <c r="N13">
+        <f>K13/1000</f>
+        <v>348.31258877889223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1600000</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.034000000000001</v>
+      </c>
+      <c r="J14">
+        <v>6400000</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K19" si="3">J14/G14</f>
+        <v>580025.37611020473</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N19" si="4">K14/1000</f>
+        <v>580.02537611020477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>800000</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.058999999999999</v>
+      </c>
+      <c r="J15">
+        <v>6400000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>636246.14772840252</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>636.24614772840255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>400000</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="J16">
+        <v>6400000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>664589.8234683281</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>664.58982346832806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>200000</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.3979999999999997</v>
+      </c>
+      <c r="J17">
+        <v>6400000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>680995.95658650785</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>680.99595658650787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.282</v>
+      </c>
+      <c r="J18">
+        <v>6400000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>689506.57185951306</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>689.50657185951309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>50000</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>125</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.2759999999999998</v>
+      </c>
+      <c r="J19">
+        <v>6400000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>689952.56576110399</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>689.95256576110398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1600000</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>57.323500000000003</v>
+      </c>
+      <c r="J22">
+        <v>6400000</v>
+      </c>
+      <c r="K22">
+        <f>J22/G22</f>
+        <v>111647.05574502602</v>
+      </c>
+      <c r="N22">
+        <f>K22/1000</f>
+        <v>111.64705574502602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1600000</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>35.628</v>
+      </c>
+      <c r="J23">
+        <v>6400000</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K28" si="5">J23/G23</f>
+        <v>179633.9957336926</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N28" si="6">K23/1000</f>
+        <v>179.63399573369261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>800000</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.027000000000001</v>
+      </c>
+      <c r="J24">
+        <v>6400000</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>193780.8459745057</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>193.7808459745057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>400000</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>30.825900000000001</v>
+      </c>
+      <c r="J25">
+        <v>6400000</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>207617.6202479084</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>207.61762024790841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>200000</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>29.965</v>
+      </c>
+      <c r="J26">
+        <v>6400000</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>213582.51293175371</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>213.58251293175371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>100000</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>29.601199999999999</v>
+      </c>
+      <c r="J27">
+        <v>6400000</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>216207.45104928181</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>216.20745104928181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>128</v>
+      </c>
+      <c r="C28">
+        <v>50000</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>125</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>29.571999999999999</v>
+      </c>
+      <c r="J28">
+        <v>6400000</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>216420.93872582173</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>216.42093872582174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A24:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>